--- a/GPUGrices.xlsx
+++ b/GPUGrices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaist\Documents\Studium\Fun\RTX 5090\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F83BAEB-B68D-401C-B714-7D36073D4E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F07D0A-83A3-489C-92BF-24E402BABCD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{C81F28D4-A634-4301-9D20-5E5134ED1920}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C81F28D4-A634-4301-9D20-5E5134ED1920}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -339,9 +339,6 @@
     <t>RTX 2080 S</t>
   </si>
   <si>
-    <t>Average, 1 GPU</t>
-  </si>
-  <si>
     <t>RTX 5070</t>
   </si>
   <si>
@@ -363,12 +360,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>https://www.hardware-journal.de/news/grafikkarten/7296-geforce-rtx-5080-3dmark-leak-15-schneller-als-rtx-4080-super</t>
-  </si>
-  <si>
-    <t>3D Mark value for 5090/80:</t>
-  </si>
-  <si>
     <t>https://www.in2013dollars.com/</t>
   </si>
   <si>
@@ -424,6 +415,15 @@
   </si>
   <si>
     <t>Generation over Generation</t>
+  </si>
+  <si>
+    <t>RTX 5090 D</t>
+  </si>
+  <si>
+    <t>3D Mark value for 5090:</t>
+  </si>
+  <si>
+    <t>Average, 1 GPU, GPU only</t>
   </si>
 </sst>
 </file>
@@ -1851,7 +1851,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>34.930930930930934</c:v>
+                  <c:v>32.436436436436438</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>24.378189094547274</c:v>
@@ -3522,7 +3522,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>34896</c:v>
+                  <c:v>32404</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>48732</c:v>
@@ -3677,34 +3677,34 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64.00573330823444</c:v>
+                  <c:v>77.342251812809138</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>133.39718107405639</c:v>
+                  <c:v>185.2845038929766</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>246.76291019302471</c:v>
+                  <c:v>361.63119363359402</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>403.37292098416776</c:v>
+                  <c:v>605.24676597537211</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>602.72496844959949</c:v>
+                  <c:v>915.3499509215992</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>844.43587016243225</c:v>
+                  <c:v>1291.3446869193392</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1128.1960256380305</c:v>
+                  <c:v>1732.7493732147143</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1453.7458774036159</c:v>
+                  <c:v>2239.1602537389581</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1820.8621166687876</c:v>
+                  <c:v>2810.2299592625586</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2229.3488983796988</c:v>
+                  <c:v>3445.653841923976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4394,7 +4394,7 @@
                   <c:v>1.0519599029909585</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6027590341796729</c:v>
+                  <c:v>1.4883024915049898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6840,8 +6840,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6951,7 +6951,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -7153,7 +7153,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
@@ -7472,7 +7472,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
@@ -7515,13 +7515,11 @@
         <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>112</v>
-      </c>
+      <c r="A23" s="5"/>
       <c r="C23" t="s">
         <v>1</v>
       </c>
@@ -7666,7 +7664,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C30" t="s">
         <v>21</v>
@@ -8790,7 +8788,7 @@
         <v>97</v>
       </c>
       <c r="O73" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P73" t="s">
         <v>98</v>
@@ -9107,16 +9105,19 @@
         <v>6</v>
       </c>
       <c r="K83" t="s">
+        <v>104</v>
+      </c>
+      <c r="M83" t="s">
         <v>105</v>
       </c>
-      <c r="M83" t="s">
+      <c r="O83" t="s">
         <v>106</v>
-      </c>
-      <c r="O83" t="s">
-        <v>107</v>
       </c>
       <c r="R83" t="s">
         <v>99</v>
+      </c>
+      <c r="S83" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="84" spans="3:19" x14ac:dyDescent="0.3">
@@ -9124,15 +9125,18 @@
         <v>17</v>
       </c>
       <c r="K84" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M84" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O84" s="2">
         <v>45687</v>
       </c>
       <c r="R84" s="2">
+        <v>45687</v>
+      </c>
+      <c r="S84" s="2">
         <v>45687</v>
       </c>
     </row>
@@ -9169,10 +9173,13 @@
         <v>19</v>
       </c>
       <c r="O87">
-        <v>34896</v>
+        <v>32404</v>
       </c>
       <c r="R87">
         <v>48732</v>
+      </c>
+      <c r="S87">
+        <v>48365</v>
       </c>
     </row>
     <row r="88" spans="3:19" x14ac:dyDescent="0.3">
@@ -9191,6 +9198,9 @@
       <c r="R88">
         <v>575</v>
       </c>
+      <c r="S88">
+        <v>575</v>
+      </c>
     </row>
     <row r="89" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
@@ -9208,6 +9218,9 @@
       <c r="R89">
         <v>1</v>
       </c>
+      <c r="S89">
+        <v>1</v>
+      </c>
     </row>
     <row r="90" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
@@ -9215,7 +9228,7 @@
       </c>
       <c r="O90">
         <f>O87/(O85*O89)</f>
-        <v>34.930930930930934</v>
+        <v>32.436436436436438</v>
       </c>
       <c r="R90">
         <f>R87/(R85*R89)</f>
@@ -9228,7 +9241,7 @@
       </c>
       <c r="O91">
         <f t="shared" ref="O91" si="32">O87/O86</f>
-        <v>17.448</v>
+        <v>16.202000000000002</v>
       </c>
       <c r="R91">
         <f t="shared" ref="R91" si="33">R87/R86</f>
@@ -9237,12 +9250,12 @@
     </row>
     <row r="96" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -9280,7 +9293,7 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D98">
         <f>$D99*D97^$D100+$D101</f>
@@ -9288,52 +9301,52 @@
       </c>
       <c r="E98">
         <f t="shared" ref="E98:N98" si="34">$D99*E97^$D100+$D101</f>
-        <v>64.00573330823444</v>
+        <v>77.342251812809138</v>
       </c>
       <c r="F98">
         <f t="shared" si="34"/>
-        <v>133.39718107405639</v>
+        <v>185.2845038929766</v>
       </c>
       <c r="G98">
         <f t="shared" si="34"/>
-        <v>246.76291019302471</v>
+        <v>361.63119363359402</v>
       </c>
       <c r="H98">
         <f t="shared" si="34"/>
-        <v>403.37292098416776</v>
+        <v>605.24676597537211</v>
       </c>
       <c r="I98">
         <f t="shared" si="34"/>
-        <v>602.72496844959949</v>
+        <v>915.3499509215992</v>
       </c>
       <c r="J98">
         <f t="shared" si="34"/>
-        <v>844.43587016243225</v>
+        <v>1291.3446869193392</v>
       </c>
       <c r="K98">
         <f t="shared" si="34"/>
-        <v>1128.1960256380305</v>
+        <v>1732.7493732147143</v>
       </c>
       <c r="L98">
         <f t="shared" si="34"/>
-        <v>1453.7458774036159</v>
+        <v>2239.1602537389581</v>
       </c>
       <c r="M98">
         <f t="shared" si="34"/>
-        <v>1820.8621166687876</v>
+        <v>2810.2299592625586</v>
       </c>
       <c r="N98">
         <f t="shared" si="34"/>
-        <v>2229.3488983796988</v>
+        <v>3445.653841923976</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D99">
-        <f>0.0000021+E99</f>
-        <v>1.3499999999999998E-6</v>
+        <f>0.0000021</f>
+        <v>2.0999999999999998E-6</v>
       </c>
       <c r="E99">
         <v>-7.5000000000000002E-7</v>
@@ -9341,7 +9354,7 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D100">
         <v>1.96</v>
@@ -9349,7 +9362,7 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D101">
         <v>40</v>
@@ -9357,29 +9370,29 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D110" t="s">
+        <v>125</v>
+      </c>
+      <c r="G110" t="s">
+        <v>126</v>
+      </c>
+      <c r="K110" t="s">
+        <v>127</v>
+      </c>
+      <c r="N110" t="s">
         <v>128</v>
-      </c>
-      <c r="G110" t="s">
-        <v>129</v>
-      </c>
-      <c r="K110" t="s">
-        <v>130</v>
-      </c>
-      <c r="N110" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C111" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D111">
         <f>(H15*H27*H19)/(H25*H17*H29)</f>
@@ -9396,7 +9409,7 @@
     </row>
     <row r="121" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C121" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D121">
         <f t="shared" ref="D121" si="36">(H25*H37*H29)/(H35*H27*H39)</f>
@@ -9413,7 +9426,7 @@
     </row>
     <row r="131" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C131" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D131">
         <f>(H35*H57*H39)/(H55*H37*H59)</f>
@@ -9430,7 +9443,7 @@
     </row>
     <row r="141" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C141" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D141">
         <f>(H55*H67*H59)/(H65*H57*H69)</f>
@@ -9447,7 +9460,7 @@
     </row>
     <row r="151" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C151" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D151">
         <f>(H65*H77*H69)/(H75*H67*H79)</f>
@@ -9468,11 +9481,11 @@
     </row>
     <row r="161" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C161" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K161">
         <f t="shared" ref="K161:N161" si="42">(O75*O87*O79)/(O85*O77*O89)</f>
-        <v>1.6027590341796729</v>
+        <v>1.4883024915049898</v>
       </c>
       <c r="N161">
         <f t="shared" si="42"/>
